--- a/Supplementary_Data.xlsx
+++ b/Supplementary_Data.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="147">
   <si>
     <t>Disease_List</t>
   </si>
@@ -836,7 +836,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1015,12 +1015,32 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
@@ -1083,6 +1103,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1648,43 +1688,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="14.140625" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="14.140625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="14.140625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="68" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2239,43 +2288,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2830,43 +2888,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="72" t="s">
         <v>93</v>
       </c>
     </row>
@@ -18229,43 +18296,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="54" t="s">
         <v>30</v>
       </c>
     </row>
@@ -18844,43 +18920,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="56" t="s">
         <v>37</v>
       </c>
     </row>
@@ -19459,43 +19544,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="58" t="s">
         <v>44</v>
       </c>
     </row>
@@ -20074,43 +20168,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="60" t="s">
         <v>51</v>
       </c>
     </row>
@@ -20689,43 +20792,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.7109375" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -21304,43 +21416,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="11.85546875" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="true"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="true"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="true"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="true"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="64" t="s">
         <v>65</v>
       </c>
     </row>
@@ -21895,43 +22016,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="2" customWidth="true"/>
-    <col min="5" max="11" width="16" style="2" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="true"/>
+    <col min="5" max="5" width="16" style="2" customWidth="true"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="true"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="true"/>
+    <col min="6" max="6" width="16" style="2" customWidth="true"/>
+    <col min="7" max="7" width="16" style="2" customWidth="true"/>
+    <col min="8" max="8" width="16" style="2" customWidth="true"/>
+    <col min="9" max="9" width="16" style="2" customWidth="true"/>
+    <col min="10" max="10" width="16" style="2" customWidth="true"/>
+    <col min="11" max="11" width="16" style="2" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="66" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Supplementary_Data.xlsx
+++ b/Supplementary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C3E0E-FE50-4AD8-B093-00B5E673A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50428C43-863A-451A-ADDF-6181DC57029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9459,7 +9459,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42700,7 +42700,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N34"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
